--- a/biology/Mycologie/Helvella_monachella/Helvella_monachella.xlsx
+++ b/biology/Mycologie/Helvella_monachella/Helvella_monachella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helvella monachella est une espèce de champignons ascomycètes, de la famille des Helvellacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve dans les bois au printemps. 
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un champignon qui, à la différence des autres espèces de sa famille (à part pour la Helvelle élevée),  a le pied presque totalement lisse. On ne risque pas de la confondre avec l'Helvelle élevée (qui a un pied marron et qui est beaucoup plus ténue par rapport à Helvella monnachella).
 </t>
@@ -573,11 +589,48 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon est un médiocre comestible du fait qu’il est sans saveur et sans goût.
-Toxicité
-On lui attribue une certaine toxicité crue. En effet, il contient de la gyromitrine et de la méthylhydrazine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Helvella_monachella</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helvella_monachella</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On lui attribue une certaine toxicité crue. En effet, il contient de la gyromitrine et de la méthylhydrazine.
 </t>
         </is>
       </c>
